--- a/FIS/rel/rel_tests/rel_test_data.xlsx
+++ b/FIS/rel/rel_tests/rel_test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Final Year\Fuzzy_logic\cw\rel_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\fuzzy_cw\rel_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ABB0C1-91C8-4DC2-84FD-8CDB3013D5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D43129-2197-4185-A33C-F30194A60E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="345" windowWidth="21600" windowHeight="12810" xr2:uid="{E9DBF028-2AFF-4D1D-8975-9DD69804B774}"/>
+    <workbookView xWindow="945" yWindow="11760" windowWidth="12150" windowHeight="13410" xr2:uid="{E9DBF028-2AFF-4D1D-8975-9DD69804B774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D27"/>
+      <selection activeCell="A27" sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,17 +450,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -480,7 +479,6 @@
         <v>3</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -489,17 +487,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -508,17 +505,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -527,17 +523,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -546,17 +541,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -565,17 +559,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -584,17 +577,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -603,17 +595,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -622,17 +613,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -641,10 +631,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -652,10 +642,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -663,10 +653,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3">
         <v>0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -674,10 +664,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3">
         <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
@@ -685,10 +675,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3">
         <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
@@ -696,10 +686,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3">
         <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
@@ -707,10 +697,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3">
         <v>40</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -718,10 +708,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3">
         <v>50</v>
-      </c>
-      <c r="B18" s="3">
-        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -729,10 +719,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3">
         <v>60</v>
-      </c>
-      <c r="B19" s="3">
-        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
@@ -740,10 +730,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3">
         <v>70</v>
-      </c>
-      <c r="B20" s="3">
-        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
@@ -751,10 +741,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
         <v>80</v>
-      </c>
-      <c r="B21" s="3">
-        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
@@ -762,10 +752,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
         <v>90</v>
-      </c>
-      <c r="B22" s="3">
-        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -784,10 +774,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3">
         <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
@@ -795,10 +785,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
         <v>40</v>
-      </c>
-      <c r="B25" s="3">
-        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>5</v>
@@ -806,10 +796,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3">
         <v>60</v>
-      </c>
-      <c r="B26" s="3">
-        <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -817,10 +807,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
         <v>80</v>
-      </c>
-      <c r="B27" s="3">
-        <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
